--- a/Data/Test.xlsx
+++ b/Data/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\uch-ranking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4DD03E-9081-4F2A-8F84-AF1C655C2081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3174DD-A31B-461C-A90D-B079F2B27AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="-108" windowWidth="39528" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="-108" windowWidth="39528" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Winner1</t>
   </si>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1114,6 +1114,9 @@
       </c>
       <c r="B7" t="s">
         <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1128,7 +1131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
